--- a/backend/web/samples/SchoolCourse.xlsx
+++ b/backend/web/samples/SchoolCourse.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23023"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23318"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C409D76C-6CA3-4E4A-8FDD-C1C2EF502FB5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{49F0863C-2CF6-4F75-89D9-6AD5FF98C29B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="191028" calcCompleted="0"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -18,6 +18,7 @@
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="43">
   <si>
     <t>Name</t>
   </si>
@@ -90,6 +91,9 @@
   </si>
   <si>
     <t>Cost Per Session</t>
+  </si>
+  <si>
+    <t>Health Insurance</t>
   </si>
   <si>
     <t>Course One</t>
@@ -542,8 +546,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AMJ3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView tabSelected="1" topLeftCell="N1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="U4" sqref="U4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75"/>
@@ -565,7 +569,8 @@
     <col min="16" max="16" width="21.5703125" customWidth="1"/>
     <col min="17" max="19" width="9.140625"/>
     <col min="20" max="20" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="21" max="28" width="9.140625"/>
+    <col min="21" max="21" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="22" max="28" width="9.140625"/>
     <col min="1024" max="1024" width="11.5703125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -630,32 +635,35 @@
       <c r="T1" s="1" t="s">
         <v>19</v>
       </c>
+      <c r="U1" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="AMJ1"/>
     </row>
     <row r="2" spans="1:1024">
       <c r="A2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F2">
         <v>20</v>
       </c>
       <c r="G2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I2">
         <v>1000</v>
@@ -679,45 +687,48 @@
         <v>10</v>
       </c>
       <c r="P2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="Q2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="R2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="S2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="T2" s="6" t="s">
-        <v>22</v>
+        <v>23</v>
+      </c>
+      <c r="U2">
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:1024">
       <c r="A3" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F3">
         <v>15</v>
       </c>
       <c r="G3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I3">
         <v>2000</v>
@@ -741,19 +752,22 @@
         <v>12</v>
       </c>
       <c r="P3" s="6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Q3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="R3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="S3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="T3" t="s">
-        <v>33</v>
+        <v>34</v>
+      </c>
+      <c r="U3">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
